--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H2">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I2">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J2">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N2">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O2">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P2">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q2">
-        <v>120.2257102546206</v>
+        <v>168.8199856639717</v>
       </c>
       <c r="R2">
-        <v>120.2257102546206</v>
+        <v>1519.379870975745</v>
       </c>
       <c r="S2">
-        <v>0.06333938060745326</v>
+        <v>0.07482166579246965</v>
       </c>
       <c r="T2">
-        <v>0.06333938060745326</v>
+        <v>0.1037008840951619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H3">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I3">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J3">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N3">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O3">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P3">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q3">
-        <v>5.34008830055827</v>
+        <v>6.447425146287222</v>
       </c>
       <c r="R3">
-        <v>5.34008830055827</v>
+        <v>58.02682631658499</v>
       </c>
       <c r="S3">
-        <v>0.002813357347859537</v>
+        <v>0.002857523578266831</v>
       </c>
       <c r="T3">
-        <v>0.002813357347859537</v>
+        <v>0.003960453409457031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H4">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I4">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J4">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N4">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O4">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P4">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q4">
-        <v>0.9743336311813517</v>
+        <v>1.265391685585556</v>
       </c>
       <c r="R4">
-        <v>0.9743336311813517</v>
+        <v>11.38852517027</v>
       </c>
       <c r="S4">
-        <v>0.000513315234930507</v>
+        <v>0.0005608264532370348</v>
       </c>
       <c r="T4">
-        <v>0.000513315234930507</v>
+        <v>0.0007772908877215583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H5">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I5">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J5">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N5">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O5">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P5">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q5">
-        <v>0.8714832197557325</v>
+        <v>0.9394723756305556</v>
       </c>
       <c r="R5">
-        <v>0.8714832197557325</v>
+        <v>8.455251380675</v>
       </c>
       <c r="S5">
-        <v>0.0004591298086924442</v>
+        <v>0.0004163777637714155</v>
       </c>
       <c r="T5">
-        <v>0.0004591298086924442</v>
+        <v>0.0005770887584944407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H6">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I6">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J6">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N6">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O6">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P6">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q6">
-        <v>143.1794897757202</v>
+        <v>153.2493083808467</v>
       </c>
       <c r="R6">
-        <v>143.1794897757202</v>
+        <v>919.49585028508</v>
       </c>
       <c r="S6">
-        <v>0.07543228631279193</v>
+        <v>0.06792068184049074</v>
       </c>
       <c r="T6">
-        <v>0.07543228631279193</v>
+        <v>0.06275753313433072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H7">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J7">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N7">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O7">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P7">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q7">
-        <v>307.5514360262733</v>
+        <v>417.0483575282426</v>
       </c>
       <c r="R7">
-        <v>307.5514360262733</v>
+        <v>3753.435217754184</v>
       </c>
       <c r="S7">
-        <v>0.162029547769615</v>
+        <v>0.1848374332194719</v>
       </c>
       <c r="T7">
-        <v>0.162029547769615</v>
+        <v>0.2561798783243451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H8">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J8">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N8">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O8">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P8">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q8">
-        <v>13.66057078694345</v>
+        <v>15.92754588249689</v>
       </c>
       <c r="R8">
-        <v>13.66057078694345</v>
+        <v>143.347912942472</v>
       </c>
       <c r="S8">
-        <v>0.007196897323848532</v>
+        <v>0.007059149485336898</v>
       </c>
       <c r="T8">
-        <v>0.007196897323848532</v>
+        <v>0.009783797712012703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H9">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J9">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N9">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O9">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P9">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q9">
-        <v>2.492459448181978</v>
+        <v>3.125989627518222</v>
       </c>
       <c r="R9">
-        <v>2.492459448181978</v>
+        <v>28.133906647664</v>
       </c>
       <c r="S9">
-        <v>0.001313120440733465</v>
+        <v>0.001385450604447069</v>
       </c>
       <c r="T9">
-        <v>0.001313120440733465</v>
+        <v>0.001920198528456143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H10">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I10">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J10">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N10">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O10">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P10">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q10">
-        <v>2.229356059873016</v>
+        <v>2.320847319462222</v>
       </c>
       <c r="R10">
-        <v>2.229356059873016</v>
+        <v>20.88762587516</v>
       </c>
       <c r="S10">
-        <v>0.001174507779465602</v>
+        <v>0.001028608442354645</v>
       </c>
       <c r="T10">
-        <v>0.001174507779465602</v>
+        <v>0.001425624566496347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H11">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I11">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J11">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N11">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O11">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P11">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q11">
-        <v>366.2698901655229</v>
+        <v>378.5829746472426</v>
       </c>
       <c r="R11">
-        <v>366.2698901655229</v>
+        <v>2271.497847883456</v>
       </c>
       <c r="S11">
-        <v>0.1929646157141546</v>
+        <v>0.1677894278474647</v>
       </c>
       <c r="T11">
-        <v>0.1929646157141546</v>
+        <v>0.1550345239827995</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H12">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I12">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J12">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N12">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O12">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P12">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q12">
-        <v>18.83235843436292</v>
+        <v>29.99168931137567</v>
       </c>
       <c r="R12">
-        <v>18.83235843436292</v>
+        <v>269.925203802381</v>
       </c>
       <c r="S12">
-        <v>0.009921587621182315</v>
+        <v>0.01329243184911749</v>
       </c>
       <c r="T12">
-        <v>0.009921587621182315</v>
+        <v>0.01842296505869698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H13">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I13">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J13">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N13">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O13">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P13">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q13">
-        <v>0.8364804560877712</v>
+        <v>1.145416350352556</v>
       </c>
       <c r="R13">
-        <v>0.8364804560877712</v>
+        <v>10.308747153173</v>
       </c>
       <c r="S13">
-        <v>0.0004406890495105492</v>
+        <v>0.0005076529240435727</v>
       </c>
       <c r="T13">
-        <v>0.0004406890495105492</v>
+        <v>0.0007035937582949521</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H14">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I14">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J14">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N14">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O14">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P14">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q14">
-        <v>0.1526212666009713</v>
+        <v>0.2248029707028889</v>
       </c>
       <c r="R14">
-        <v>0.1526212666009713</v>
+        <v>2.023226736326</v>
       </c>
       <c r="S14">
-        <v>8.040656589640725E-05</v>
+        <v>9.963353969574191E-05</v>
       </c>
       <c r="T14">
-        <v>8.040656589640725E-05</v>
+        <v>0.0001380894964385932</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H15">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I15">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J15">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N15">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O15">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P15">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q15">
-        <v>0.13651060433924</v>
+        <v>0.1669018244238889</v>
       </c>
       <c r="R15">
-        <v>0.13651060433924</v>
+        <v>1.502116419815</v>
       </c>
       <c r="S15">
-        <v>7.191886915772474E-05</v>
+        <v>7.397152936651822E-05</v>
       </c>
       <c r="T15">
-        <v>7.191886915772474E-05</v>
+        <v>0.0001025226171047264</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H16">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I16">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J16">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N16">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O16">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P16">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q16">
-        <v>22.42787725017357</v>
+        <v>27.22548296675067</v>
       </c>
       <c r="R16">
-        <v>22.42787725017357</v>
+        <v>163.352897800504</v>
       </c>
       <c r="S16">
-        <v>0.01181584080773929</v>
+        <v>0.01206643857695533</v>
       </c>
       <c r="T16">
-        <v>0.01181584080773929</v>
+        <v>0.01114918016555013</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H17">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I17">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J17">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N17">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O17">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P17">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q17">
-        <v>20.75334072445607</v>
+        <v>29.06373784138833</v>
       </c>
       <c r="R17">
-        <v>20.75334072445607</v>
+        <v>261.573640572495</v>
       </c>
       <c r="S17">
-        <v>0.0109336326168384</v>
+        <v>0.01288116019495906</v>
       </c>
       <c r="T17">
-        <v>0.0109336326168384</v>
+        <v>0.01785295323541302</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H18">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I18">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J18">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N18">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O18">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P18">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q18">
-        <v>0.9218050928163102</v>
+        <v>1.109976839926111</v>
       </c>
       <c r="R18">
-        <v>0.9218050928163102</v>
+        <v>9.989791559334998</v>
       </c>
       <c r="S18">
-        <v>0.0004856412450891476</v>
+        <v>0.0004919459969605781</v>
       </c>
       <c r="T18">
-        <v>0.0004856412450891476</v>
+        <v>0.0006818243655973532</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H19">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I19">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J19">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N19">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O19">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P19">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q19">
-        <v>0.1681892981491118</v>
+        <v>0.2178475023077778</v>
       </c>
       <c r="R19">
-        <v>0.1681892981491118</v>
+        <v>1.96062752077</v>
       </c>
       <c r="S19">
-        <v>8.860838457103316E-05</v>
+        <v>9.655084939907903E-05</v>
       </c>
       <c r="T19">
-        <v>8.860838457103316E-05</v>
+        <v>0.0001338169678097573</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H20">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I20">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J20">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N20">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O20">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P20">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q20">
-        <v>0.1504352784186745</v>
+        <v>0.1617378341027778</v>
       </c>
       <c r="R20">
-        <v>0.1504352784186745</v>
+        <v>1.455640506925</v>
       </c>
       <c r="S20">
-        <v>7.925490592959439E-05</v>
+        <v>7.168282903022751E-05</v>
       </c>
       <c r="T20">
-        <v>7.925490592959439E-05</v>
+        <v>9.935053792433843E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H21">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I21">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J21">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N21">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O21">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P21">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q21">
-        <v>24.71561806352561</v>
+        <v>26.38311871451333</v>
       </c>
       <c r="R21">
-        <v>24.71561806352561</v>
+        <v>158.29871228708</v>
       </c>
       <c r="S21">
-        <v>0.01302110784921672</v>
+        <v>0.01169309950629649</v>
       </c>
       <c r="T21">
-        <v>0.01302110784921672</v>
+        <v>0.01080422133324282</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H22">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I22">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J22">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N22">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O22">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P22">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q22">
-        <v>375.9862321994626</v>
+        <v>506.8251315262845</v>
       </c>
       <c r="R22">
-        <v>375.9862321994626</v>
+        <v>3040.950789157706</v>
       </c>
       <c r="S22">
-        <v>0.1980835464727795</v>
+        <v>0.2246268441330466</v>
       </c>
       <c r="T22">
-        <v>0.1980835464727795</v>
+        <v>0.2075513117881556</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H23">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I23">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J23">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N23">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O23">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P23">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q23">
-        <v>16.70025217973017</v>
+        <v>19.3562218650885</v>
       </c>
       <c r="R23">
-        <v>16.70025217973017</v>
+        <v>116.137331190531</v>
       </c>
       <c r="S23">
-        <v>0.008798314660085165</v>
+        <v>0.008578751844448375</v>
       </c>
       <c r="T23">
-        <v>0.008798314660085165</v>
+        <v>0.007926618057126378</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H24">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I24">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J24">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N24">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O24">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P24">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q24">
-        <v>3.047068968170375</v>
+        <v>3.798912225687</v>
       </c>
       <c r="R24">
-        <v>3.047068968170375</v>
+        <v>22.793473354122</v>
       </c>
       <c r="S24">
-        <v>0.001605309386015341</v>
+        <v>0.00168369248348977</v>
       </c>
       <c r="T24">
-        <v>0.001605309386015341</v>
+        <v>0.001555702680794368</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H25">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I25">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J25">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N25">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O25">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P25">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q25">
-        <v>2.72542113934753</v>
+        <v>2.8204492997175</v>
       </c>
       <c r="R25">
-        <v>2.72542113934753</v>
+        <v>16.922695798305</v>
       </c>
       <c r="S25">
-        <v>0.001435853333659949</v>
+        <v>0.001250033958112724</v>
       </c>
       <c r="T25">
-        <v>0.001435853333659949</v>
+        <v>0.001155009717504495</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H26">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I26">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J26">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N26">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O26">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P26">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q26">
-        <v>447.7704209440972</v>
+        <v>460.0794187427219</v>
       </c>
       <c r="R26">
-        <v>447.7704209440972</v>
+        <v>1840.317674970888</v>
       </c>
       <c r="S26">
-        <v>0.2359021298927841</v>
+        <v>0.2039089647577677</v>
       </c>
       <c r="T26">
-        <v>0.2359021298927841</v>
+        <v>0.1256055668210708</v>
       </c>
     </row>
   </sheetData>
